--- a/Script/Example/Ecoli test1.xlsx
+++ b/Script/Example/Ecoli test1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365skku-my.sharepoint.com/personal/cymee95_o365_skku_edu/Documents/Research/Project/2020 Biomass/Supplementary file/FBAwEB script/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoonmi\Documents\GitHub\FBAwEB\Script\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="13_ncr:1_{453F0ECA-B564-41AB-AA2A-21EAC8CD910E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92E01495-3CCF-4660-BB60-6BB9869A7E30}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD955B76-04D4-4B86-A47C-1670136E25A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="794" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" tabRatio="794" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="5" r:id="rId1"/>
@@ -481,10 +481,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.00000"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -754,7 +755,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -848,6 +849,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal 2" xfId="2" xr:uid="{B4F3A9B0-A8D3-49F6-8DA1-68FB170FBD04}"/>
@@ -3099,18 +3101,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD4477E-9A9D-46DE-A2FE-4AEF7AD079AD}">
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="12.42578125" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" customWidth="1"/>
+    <col min="1" max="2" width="12.44140625" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" customWidth="1"/>
     <col min="18" max="18" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="122.25">
+    <row r="1" spans="1:28" ht="121.2">
       <c r="A1" s="47" t="s">
         <v>95</v>
       </c>
@@ -3704,16 +3706,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49627C22-8C14-43FD-A9BA-80792DE9A3D8}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -3744,8 +3746,8 @@
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2">
-        <v>7.1001816421601818E-2</v>
+      <c r="A2" s="55">
+        <v>7.0986273898964766E-2</v>
       </c>
       <c r="B2">
         <v>71.079000000000008</v>
@@ -3764,8 +3766,8 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3">
-        <v>7.3237501814246944E-2</v>
+      <c r="A3" s="55">
+        <v>7.3258480707502099E-2</v>
       </c>
       <c r="B3">
         <v>157.197</v>
@@ -3790,8 +3792,8 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4">
-        <v>5.391204233555922E-2</v>
+      <c r="A4" s="55">
+        <v>5.3900942626310476E-2</v>
       </c>
       <c r="B4">
         <v>114.104</v>
@@ -3805,8 +3807,8 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5">
-        <v>5.3900702776770282E-2</v>
+      <c r="A5" s="55">
+        <v>5.3889605402172573E-2</v>
       </c>
       <c r="B5">
         <v>114.08</v>
@@ -3820,8 +3822,8 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6">
-        <v>1.6306319892020783E-2</v>
+      <c r="A6" s="55">
+        <v>1.6307153061158191E-2</v>
       </c>
       <c r="B6">
         <v>103.14500000000001</v>
@@ -3835,8 +3837,8 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7">
-        <v>6.8215511312353136E-2</v>
+      <c r="A7" s="55">
+        <v>6.8197163410207262E-2</v>
       </c>
       <c r="B7">
         <v>128.13099999999997</v>
@@ -3850,8 +3852,8 @@
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8">
-        <v>6.8202733980782387E-2</v>
+      <c r="A8" s="55">
+        <v>6.8184389515350899E-2</v>
       </c>
       <c r="B8">
         <v>128.10700000000003</v>
@@ -3865,8 +3867,8 @@
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9">
-        <v>4.3015750920903525E-2</v>
+      <c r="A9" s="55">
+        <v>4.2978022997796385E-2</v>
       </c>
       <c r="B9">
         <v>57.052000000000007</v>
@@ -3880,8 +3882,8 @@
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10">
-        <v>2.2723091186540593E-2</v>
+      <c r="A10" s="55">
+        <v>2.2725391053365625E-2</v>
       </c>
       <c r="B10">
         <v>137.142</v>
@@ -3895,8 +3897,8 @@
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11">
-        <v>5.1193873412641144E-2</v>
+      <c r="A11" s="55">
+        <v>5.1210830626827582E-2</v>
       </c>
       <c r="B11">
         <v>113.16000000000001</v>
@@ -3910,8 +3912,8 @@
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12">
-        <v>7.6329255179572147E-2</v>
+      <c r="A12" s="55">
+        <v>7.6370406849252032E-2</v>
       </c>
       <c r="B12">
         <v>113.16000000000001</v>
@@ -3925,8 +3927,8 @@
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13">
-        <v>7.1117953610968815E-2</v>
+      <c r="A13" s="55">
+        <v>7.1136746328565287E-2</v>
       </c>
       <c r="B13">
         <v>129.18299999999999</v>
@@ -3940,8 +3942,8 @@
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14">
-        <v>3.085598407589616E-2</v>
+      <c r="A14" s="55">
+        <v>3.0868314074490696E-2</v>
       </c>
       <c r="B14">
         <v>131.19900000000001</v>
@@ -3955,8 +3957,8 @@
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15">
-        <v>4.6534885352568063E-2</v>
+      <c r="A15" s="55">
+        <v>4.6540286012166997E-2</v>
       </c>
       <c r="B15">
         <v>147.17699999999996</v>
@@ -3970,8 +3972,8 @@
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16">
-        <v>3.6526897358998618E-2</v>
+      <c r="A16" s="55">
+        <v>3.6529105464267728E-2</v>
       </c>
       <c r="B16">
         <v>97.117000000000004</v>
@@ -3985,8 +3987,8 @@
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17">
-        <v>3.8627245444509732E-2</v>
+      <c r="A17" s="55">
+        <v>3.8614626344317039E-2</v>
       </c>
       <c r="B17">
         <v>87.078000000000003</v>
@@ -4000,8 +4002,8 @@
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18">
-        <v>4.921169213007906E-2</v>
+      <c r="A18" s="55">
+        <v>4.9202656027153992E-2</v>
       </c>
       <c r="B18">
         <v>101.105</v>
@@ -4015,8 +4017,8 @@
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19">
-        <v>1.9048635459561692E-2</v>
+      <c r="A19" s="55">
+        <v>1.9049608746930007E-2</v>
       </c>
       <c r="B19">
         <v>186.214</v>
@@ -4030,8 +4032,8 @@
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20">
-        <v>4.2473699599879552E-2</v>
+      <c r="A20" s="55">
+        <v>4.2469122762467393E-2</v>
       </c>
       <c r="B20">
         <v>163.17599999999999</v>
@@ -4045,8 +4047,8 @@
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21">
-        <v>6.756440773454625E-2</v>
+      <c r="A21" s="55">
+        <v>6.7580874090732754E-2</v>
       </c>
       <c r="B21">
         <v>99.13300000000001</v>
@@ -4062,8 +4064,8 @@
     <row r="24" spans="1:6">
       <c r="F24" s="9"/>
     </row>
-    <row r="51" spans="6:6" ht="15.75" thickBot="1"/>
-    <row r="52" spans="6:6" ht="15.75" thickBot="1">
+    <row r="51" spans="6:6" ht="15" thickBot="1"/>
+    <row r="52" spans="6:6" ht="15" thickBot="1">
       <c r="F52" s="1"/>
     </row>
   </sheetData>
@@ -4081,10 +4083,10 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -4204,9 +4206,9 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4356,7 +4358,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -4421,15 +4423,15 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="2"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -4502,7 +4504,7 @@
       <c r="I3"/>
       <c r="K3"/>
     </row>
-    <row r="4" spans="1:26" s="2" customFormat="1" ht="15.75" thickBot="1">
+    <row r="4" spans="1:26" s="2" customFormat="1" ht="15" thickBot="1">
       <c r="A4" s="2">
         <v>0.15347009801463146</v>
       </c>
@@ -4559,7 +4561,7 @@
       <c r="I6"/>
       <c r="K6"/>
     </row>
-    <row r="7" spans="1:26" s="2" customFormat="1" ht="15.75" thickBot="1">
+    <row r="7" spans="1:26" s="2" customFormat="1" ht="15" thickBot="1">
       <c r="A7" s="2">
         <v>3.1031731903047362E-2</v>
       </c>
@@ -4616,7 +4618,7 @@
       <c r="I9"/>
       <c r="K9"/>
     </row>
-    <row r="10" spans="1:26" s="2" customFormat="1" ht="15.75" thickBot="1">
+    <row r="10" spans="1:26" s="2" customFormat="1" ht="15" thickBot="1">
       <c r="A10" s="2">
         <v>1.0984213721275771E-2</v>
       </c>
@@ -4657,16 +4659,16 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.899999999999999" customHeight="1">
+    <row r="1" spans="1:20" ht="19.95" customHeight="1">
       <c r="A1" t="s">
         <v>97</v>
       </c>
@@ -4864,7 +4866,7 @@
       <c r="Q7" s="23"/>
       <c r="R7" s="23"/>
     </row>
-    <row r="8" spans="1:20" ht="14.65" customHeight="1">
+    <row r="8" spans="1:20" ht="14.7" customHeight="1">
       <c r="C8" s="19" t="s">
         <v>47</v>
       </c>
@@ -4875,7 +4877,7 @@
         <v>75.377200000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="14.65" customHeight="1">
+    <row r="9" spans="1:20" ht="14.7" customHeight="1">
       <c r="C9" s="19" t="s">
         <v>2</v>
       </c>
@@ -4886,7 +4888,7 @@
         <v>75.377200000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="14.65" customHeight="1">
+    <row r="10" spans="1:20" ht="14.7" customHeight="1">
       <c r="A10" s="20"/>
       <c r="C10" s="32" t="s">
         <v>98</v>
@@ -4898,7 +4900,7 @@
         <v>2.5999999999999998E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="14.65" customHeight="1">
+    <row r="11" spans="1:20" ht="14.7" customHeight="1">
       <c r="C11" s="32" t="s">
         <v>99</v>
       </c>
@@ -4909,7 +4911,7 @@
         <v>2.5999999999999998E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="14.65" customHeight="1">
+    <row r="12" spans="1:20" ht="14.7" customHeight="1">
       <c r="C12" s="32" t="s">
         <v>65</v>
       </c>
@@ -4920,7 +4922,7 @@
         <v>5.2050000000000004E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="14.65" customHeight="1">
+    <row r="13" spans="1:20" ht="14.7" customHeight="1">
       <c r="C13" s="32" t="s">
         <v>73</v>
       </c>
@@ -4931,7 +4933,7 @@
         <v>5.2050000000000004E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="14.65" customHeight="1">
+    <row r="14" spans="1:20" ht="14.7" customHeight="1">
       <c r="C14" s="32" t="s">
         <v>71</v>
       </c>
@@ -4942,7 +4944,7 @@
         <v>2.5000000000000001E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="14.65" customHeight="1">
+    <row r="15" spans="1:20" ht="14.7" customHeight="1">
       <c r="C15" s="32" t="s">
         <v>68</v>
       </c>
@@ -4953,7 +4955,7 @@
         <v>7.0899999999999999E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="14.65" customHeight="1">
+    <row r="16" spans="1:20" ht="14.7" customHeight="1">
       <c r="C16" s="32" t="s">
         <v>66</v>
       </c>
@@ -4964,7 +4966,7 @@
         <v>6.7149999999999996E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="14.65" customHeight="1">
+    <row r="17" spans="2:5" ht="14.7" customHeight="1">
       <c r="B17" s="21"/>
       <c r="C17" s="32" t="s">
         <v>67</v>
@@ -4976,7 +4978,7 @@
         <v>7.8079999999999998E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="14.65" customHeight="1">
+    <row r="18" spans="2:5" ht="14.7" customHeight="1">
       <c r="C18" s="32" t="s">
         <v>62</v>
       </c>
@@ -4987,7 +4989,7 @@
         <v>0.19519300000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="14.65" customHeight="1">
+    <row r="19" spans="2:5" ht="14.7" customHeight="1">
       <c r="C19" s="32" t="s">
         <v>64</v>
       </c>
@@ -5042,7 +5044,7 @@
         <v>3.2299999999999999E-4</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="13.9" customHeight="1">
+    <row r="24" spans="2:5" ht="13.95" customHeight="1">
       <c r="C24" s="32" t="s">
         <v>74</v>
       </c>
@@ -5053,7 +5055,7 @@
         <v>4.3379999999999998E-3</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="13.9" customHeight="1">
+    <row r="25" spans="2:5" ht="13.95" customHeight="1">
       <c r="C25" s="32" t="s">
         <v>72</v>
       </c>

--- a/Script/Example/Ecoli test1.xlsx
+++ b/Script/Example/Ecoli test1.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoonmi\Documents\GitHub\FBAwEB\Script\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD955B76-04D4-4B86-A47C-1670136E25A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D063BA4-A5BF-4469-BE48-63675FB1AD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" tabRatio="794" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" tabRatio="794" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="5" r:id="rId1"/>
     <sheet name="PROTsyn" sheetId="7" r:id="rId2"/>
     <sheet name="RNAsyn" sheetId="9" r:id="rId3"/>
     <sheet name="DNAsyn" sheetId="8" r:id="rId4"/>
-    <sheet name="CARBsyn" sheetId="16" state="hidden" r:id="rId5"/>
+    <sheet name="CARBsyn" sheetId="16" r:id="rId5"/>
     <sheet name="LIPIDsyn" sheetId="10" r:id="rId6"/>
     <sheet name="Biomass" sheetId="12" r:id="rId7"/>
   </sheets>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="136">
   <si>
     <t>Protein</t>
   </si>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>glycogen</t>
-  </si>
-  <si>
-    <t>carbohydrate</t>
   </si>
   <si>
     <t>lipid</t>
@@ -475,6 +472,12 @@
   </si>
   <si>
     <t>Beck et al., 2018</t>
+  </si>
+  <si>
+    <t>carb</t>
+  </si>
+  <si>
+    <t>Carbohydrate</t>
   </si>
 </sst>
 </file>
@@ -485,7 +488,7 @@
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -849,7 +852,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal 2" xfId="2" xr:uid="{B4F3A9B0-A8D3-49F6-8DA1-68FB170FBD04}"/>
@@ -3099,94 +3102,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD4477E-9A9D-46DE-A2FE-4AEF7AD079AD}">
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:H3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
     <col min="14" max="14" width="9.5546875" customWidth="1"/>
     <col min="18" max="18" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="121.2">
       <c r="A1" s="47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="D1" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="E1" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="F1" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="G1" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="H1" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="I1" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="J1" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="K1" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="L1" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="M1" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="N1" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="N1" s="50" t="s">
+      <c r="O1" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="O1" s="50" t="s">
+      <c r="P1" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="P1" s="50" t="s">
+      <c r="Q1" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="Q1" s="50" t="s">
+      <c r="R1" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="R1" s="50" t="s">
+      <c r="S1" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="S1" s="50" t="s">
+      <c r="T1" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="T1" s="50" t="s">
+      <c r="U1" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="U1" s="50" t="s">
+      <c r="V1" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="V1" s="50" t="s">
+      <c r="W1" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="W1" s="51" t="s">
-        <v>134</v>
-      </c>
       <c r="X1" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y1" s="52" t="s">
         <v>93</v>
-      </c>
-      <c r="Y1" s="52" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:28">
@@ -3238,7 +3242,7 @@
         <v>0.35200000000000004</v>
       </c>
       <c r="X2" s="40">
-        <f t="shared" ref="X2:X9" si="0">AVERAGE(B2:W2)</f>
+        <f t="shared" ref="X2:X10" si="0">AVERAGE(B2:W2)</f>
         <v>0.58052727272727267</v>
       </c>
       <c r="Y2" s="41">
@@ -3251,7 +3255,7 @@
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="42">
         <v>5.6363636363636359E-2</v>
@@ -3324,7 +3328,7 @@
         <v>2.9463863338155791E-2</v>
       </c>
       <c r="Y3" s="41">
-        <f t="shared" ref="Y3:Y5" si="1">STDEV(B3:W3)</f>
+        <f t="shared" ref="Y3:Y6" si="1">STDEV(B3:W3)</f>
         <v>1.2847820935033658E-2</v>
       </c>
       <c r="Z3" s="2"/>
@@ -3333,7 +3337,7 @@
     </row>
     <row r="4" spans="1:28">
       <c r="A4" s="34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="42">
         <v>0.37272727272727268</v>
@@ -3415,33 +3419,33 @@
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="53">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="37">
-        <v>0.20180000000000001</v>
-      </c>
-      <c r="O5" s="37">
-        <v>0.188</v>
-      </c>
-      <c r="P5" s="37">
-        <v>0.1454</v>
-      </c>
-      <c r="Q5" s="37">
-        <v>0.11199999999999999</v>
+        <v>135</v>
+      </c>
+      <c r="B5" s="42">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="40">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="O5" s="40">
+        <v>8.1000000000000013E-3</v>
+      </c>
+      <c r="P5" s="40">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="Q5" s="40">
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="R5" s="35"/>
       <c r="S5" s="35"/>
@@ -3449,15 +3453,15 @@
       <c r="U5" s="35"/>
       <c r="V5" s="35"/>
       <c r="W5" s="36">
-        <v>6.7000000000000004E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="X5" s="40">
         <f t="shared" si="0"/>
-        <v>0.13419999999999999</v>
+        <v>1.5799999999999998E-2</v>
       </c>
       <c r="Y5" s="41">
         <f t="shared" si="1"/>
-        <v>5.3785797381836857E-2</v>
+        <v>1.4791484036431234E-2</v>
       </c>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
@@ -3465,10 +3469,10 @@
     </row>
     <row r="6" spans="1:28">
       <c r="A6" s="34" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B6" s="53">
-        <v>3.4000000000000002E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="35"/>
@@ -3481,31 +3485,33 @@
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
-      <c r="N6" s="36">
-        <v>1.18E-2</v>
-      </c>
-      <c r="O6" s="36">
-        <v>1.1000000000000001E-2</v>
-      </c>
-      <c r="P6" s="36">
-        <v>8.5000000000000006E-3</v>
-      </c>
-      <c r="Q6" s="36">
-        <v>6.5000000000000006E-3</v>
+      <c r="N6" s="37">
+        <v>0.20180000000000001</v>
+      </c>
+      <c r="O6" s="37">
+        <v>0.188</v>
+      </c>
+      <c r="P6" s="37">
+        <v>0.1454</v>
+      </c>
+      <c r="Q6" s="37">
+        <v>0.11199999999999999</v>
       </c>
       <c r="R6" s="35"/>
       <c r="S6" s="35"/>
       <c r="T6" s="35"/>
       <c r="U6" s="35"/>
       <c r="V6" s="35"/>
-      <c r="W6" s="36"/>
+      <c r="W6" s="36">
+        <v>6.7000000000000004E-2</v>
+      </c>
       <c r="X6" s="40">
         <f t="shared" si="0"/>
-        <v>1.4360000000000001E-2</v>
+        <v>0.13419999999999999</v>
       </c>
       <c r="Y6" s="41">
-        <f>STDEV(B6:W6)</f>
-        <v>1.1176895812344319E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.3785797381836857E-2</v>
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
@@ -3513,10 +3519,10 @@
     </row>
     <row r="7" spans="1:28">
       <c r="A7" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="54">
-        <v>2.5000000000000001E-2</v>
+        <v>51</v>
+      </c>
+      <c r="B7" s="53">
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
@@ -3529,17 +3535,17 @@
       <c r="K7" s="36"/>
       <c r="L7" s="36"/>
       <c r="M7" s="36"/>
-      <c r="N7" s="44">
-        <v>8.6999999999999994E-3</v>
-      </c>
-      <c r="O7" s="44">
-        <v>8.1000000000000013E-3</v>
-      </c>
-      <c r="P7" s="44">
-        <v>6.1999999999999998E-3</v>
-      </c>
-      <c r="Q7" s="44">
-        <v>4.7999999999999996E-3</v>
+      <c r="N7" s="36">
+        <v>1.18E-2</v>
+      </c>
+      <c r="O7" s="36">
+        <v>1.1000000000000001E-2</v>
+      </c>
+      <c r="P7" s="36">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="Q7" s="36">
+        <v>6.5000000000000006E-3</v>
       </c>
       <c r="R7" s="35"/>
       <c r="S7" s="35"/>
@@ -3548,12 +3554,12 @@
       <c r="V7" s="35"/>
       <c r="W7" s="36"/>
       <c r="X7" s="40">
-        <f>AVERAGE(B7:W7)</f>
-        <v>1.056E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.4360000000000001E-2</v>
       </c>
       <c r="Y7" s="41">
         <f>STDEV(B7:W7)</f>
-        <v>8.2190632069597848E-3</v>
+        <v>1.1176895812344319E-2</v>
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
@@ -3561,10 +3567,10 @@
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" s="53">
-        <v>0.01</v>
+        <v>91</v>
+      </c>
+      <c r="B8" s="54">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
@@ -3577,10 +3583,18 @@
       <c r="K8" s="36"/>
       <c r="L8" s="36"/>
       <c r="M8" s="36"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
+      <c r="N8" s="44">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="O8" s="44">
+        <v>8.1000000000000013E-3</v>
+      </c>
+      <c r="P8" s="44">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="Q8" s="44">
+        <v>4.7999999999999996E-3</v>
+      </c>
       <c r="R8" s="35"/>
       <c r="S8" s="35"/>
       <c r="T8" s="35"/>
@@ -3588,45 +3602,48 @@
       <c r="V8" s="35"/>
       <c r="W8" s="36"/>
       <c r="X8" s="40">
-        <f t="shared" si="0"/>
-        <v>0.01</v>
-      </c>
-      <c r="Y8" s="40"/>
+        <f>AVERAGE(B8:W8)</f>
+        <v>1.056E-2</v>
+      </c>
+      <c r="Y8" s="41">
+        <f>STDEV(B8:W8)</f>
+        <v>8.2190632069597848E-3</v>
+      </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
     </row>
     <row r="9" spans="1:28">
-      <c r="A9" s="45" t="s">
-        <v>110</v>
+      <c r="A9" s="34" t="s">
+        <v>108</v>
       </c>
       <c r="B9" s="53">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
+        <v>0.01</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="36"/>
       <c r="X9" s="40">
         <f t="shared" si="0"/>
-        <v>2.9000000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="Y9" s="40"/>
       <c r="Z9" s="2"/>
@@ -3634,40 +3651,47 @@
       <c r="AB9" s="2"/>
     </row>
     <row r="10" spans="1:28">
-      <c r="A10" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
+      <c r="A10" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="53">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40">
+        <f t="shared" si="0"/>
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="Y10" s="40"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
     </row>
     <row r="11" spans="1:28">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="16"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -3695,6 +3719,36 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
     </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3706,8 +3760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49627C22-8C14-43FD-A9BA-80792DE9A3D8}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3720,28 +3774,28 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
       <c r="F1" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J1" s="7"/>
     </row>
@@ -3756,13 +3810,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3776,19 +3830,19 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3802,7 +3856,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="8"/>
     </row>
@@ -3817,7 +3871,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" s="8"/>
     </row>
@@ -3832,7 +3886,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="8"/>
     </row>
@@ -3847,7 +3901,7 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -3862,7 +3916,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="8"/>
     </row>
@@ -3877,7 +3931,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="8"/>
     </row>
@@ -3892,7 +3946,7 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="8"/>
     </row>
@@ -3907,7 +3961,7 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="8"/>
     </row>
@@ -3922,7 +3976,7 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="8"/>
     </row>
@@ -3937,7 +3991,7 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -3952,7 +4006,7 @@
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -3967,7 +4021,7 @@
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -3982,7 +4036,7 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -3997,7 +4051,7 @@
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" s="8"/>
     </row>
@@ -4012,7 +4066,7 @@
         <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -4027,7 +4081,7 @@
         <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="8"/>
     </row>
@@ -4042,7 +4096,7 @@
         <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20" s="8"/>
     </row>
@@ -4057,7 +4111,7 @@
         <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -4080,7 +4134,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4091,28 +4145,28 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
       <c r="F1" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -4126,16 +4180,16 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4149,13 +4203,13 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -4172,7 +4226,7 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4183,10 +4237,10 @@
         <v>328.20099999999996</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4203,7 +4257,7 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4214,28 +4268,28 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
       <c r="F1" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -4249,16 +4303,16 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -4272,13 +4326,13 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -4295,7 +4349,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -4309,7 +4363,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -4355,35 +4409,38 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
       <c r="F1" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4397,13 +4454,13 @@
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -4420,7 +4477,7 @@
   <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4436,28 +4493,28 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
       <c r="F1" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:26" s="2" customFormat="1">
@@ -4468,16 +4525,16 @@
         <v>691.97199999999998</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -4493,10 +4550,10 @@
         <v>687.93999999999994</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F3"/>
       <c r="G3"/>
@@ -4512,10 +4569,10 @@
         <v>744.04799999999989</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
@@ -4531,10 +4588,10 @@
         <v>721.97400000000005</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
@@ -4550,10 +4607,10 @@
         <v>717.94200000000001</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
@@ -4569,10 +4626,10 @@
         <v>774.05000000000007</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
@@ -4588,10 +4645,10 @@
         <v>1351.854</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F8"/>
       <c r="G8"/>
@@ -4607,10 +4664,10 @@
         <v>1343.7900000000002</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F9"/>
       <c r="G9"/>
@@ -4626,10 +4683,10 @@
         <v>1456.0060000000001</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F10"/>
       <c r="G10"/>
@@ -4653,10 +4710,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799FB12E-3D10-48C8-98CE-9C558B494055}">
-  <dimension ref="A1:T42"/>
+  <dimension ref="A1:T43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4670,28 +4727,28 @@
   <sheetData>
     <row r="1" spans="1:20" ht="19.95" customHeight="1">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
       <c r="F1" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J1" s="23"/>
       <c r="K1" s="23"/>
@@ -4712,22 +4769,22 @@
         <v>1840.0329999999999</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2">
         <v>75.377200000000002</v>
       </c>
       <c r="J2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K2" s="23"/>
       <c r="L2" s="23"/>
@@ -4748,16 +4805,16 @@
         <v>1892.848</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>75.377200000000002</v>
@@ -4775,19 +4832,19 @@
     </row>
     <row r="4" spans="1:20">
       <c r="C4" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>75.373252343637489</v>
@@ -4805,15 +4862,15 @@
     </row>
     <row r="5" spans="1:20">
       <c r="C5" s="11" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="13"/>
       <c r="K5" s="23"/>
       <c r="L5" s="23"/>
       <c r="M5" s="23"/>
@@ -4827,10 +4884,10 @@
     </row>
     <row r="6" spans="1:20">
       <c r="C6" s="11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -4849,15 +4906,16 @@
     </row>
     <row r="7" spans="1:20">
       <c r="C7" s="11" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" s="15"/>
+      <c r="K7" s="23"/>
       <c r="L7" s="23"/>
       <c r="M7" s="23"/>
       <c r="N7" s="23"/>
@@ -4865,69 +4923,79 @@
       <c r="P7" s="23"/>
       <c r="Q7" s="23"/>
       <c r="R7" s="23"/>
-    </row>
-    <row r="8" spans="1:20" ht="14.7" customHeight="1">
-      <c r="C8" s="19" t="s">
-        <v>47</v>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="C8" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8">
-        <v>75.377200000000002</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="1:20" ht="14.7" customHeight="1">
       <c r="C9" s="19" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9">
         <v>75.377200000000002</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="14.7" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="C10" s="32" t="s">
-        <v>98</v>
+      <c r="C10" s="19" t="s">
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10">
+        <v>75.377200000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="14.7" customHeight="1">
+      <c r="A11" s="20"/>
+      <c r="C11" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11">
         <v>2.5999999999999998E-5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="14.7" customHeight="1">
-      <c r="C11" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11">
-        <v>2.5999999999999998E-4</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="14.7" customHeight="1">
       <c r="C12" s="32" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12">
-        <v>5.2050000000000004E-3</v>
+        <v>2.5999999999999998E-4</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="14.7" customHeight="1">
       <c r="C13" s="32" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13">
         <v>5.2050000000000004E-3</v>
@@ -4935,154 +5003,154 @@
     </row>
     <row r="14" spans="1:20" ht="14.7" customHeight="1">
       <c r="C14" s="32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14">
-        <v>2.5000000000000001E-5</v>
+        <v>5.2050000000000004E-3</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="14.7" customHeight="1">
       <c r="C15" s="32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15">
-        <v>7.0899999999999999E-4</v>
+        <v>2.5000000000000001E-5</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="14.7" customHeight="1">
       <c r="C16" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16">
+        <v>7.0899999999999999E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="14.7" customHeight="1">
+      <c r="C17" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17">
+        <v>6.7149999999999996E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="14.7" customHeight="1">
+      <c r="B18" s="21"/>
+      <c r="C18" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16">
-        <v>6.7149999999999996E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="14.7" customHeight="1">
-      <c r="B17" s="21"/>
-      <c r="C17" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17">
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18">
         <v>7.8079999999999998E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="14.7" customHeight="1">
-      <c r="C18" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18">
-        <v>0.19519300000000001</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="14.7" customHeight="1">
       <c r="C19" s="32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19">
+        <v>0.19519300000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="14.7" customHeight="1">
+      <c r="C20" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20">
         <v>8.6750000000000004E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="C20" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20">
-        <v>6.9099999999999999E-4</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="C21" s="32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21">
-        <v>6.9999999999999999E-6</v>
+        <v>6.9099999999999999E-4</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="C22" s="32" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E22">
-        <v>1.3013E-2</v>
+        <v>6.9999999999999999E-6</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="C23" s="32" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E23">
+        <v>1.3013E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="C24" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24">
         <v>3.2299999999999999E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="13.95" customHeight="1">
-      <c r="C24" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24">
-        <v>4.3379999999999998E-3</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="13.95" customHeight="1">
       <c r="C25" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E25">
+        <v>4.3379999999999998E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="13.95" customHeight="1">
+      <c r="C26" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26">
         <v>3.4099999999999999E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="C26" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26">
-        <v>2.23E-4</v>
       </c>
     </row>
     <row r="27" spans="2:5">
       <c r="C27" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E27">
         <v>2.23E-4</v>
@@ -5090,43 +5158,43 @@
     </row>
     <row r="28" spans="2:5">
       <c r="C28" s="18" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E28">
-        <v>1.9999999999999999E-6</v>
+        <v>2.23E-4</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="C29" s="18" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E29">
-        <v>5.7600000000000001E-4</v>
+        <v>1.9999999999999999E-6</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="C30" s="18" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E30">
-        <v>2.23E-4</v>
+        <v>5.7600000000000001E-4</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="C31" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E31">
         <v>2.23E-4</v>
@@ -5134,35 +5202,35 @@
     </row>
     <row r="32" spans="2:5">
       <c r="C32" s="18" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E32">
-        <v>1.8309999999999999E-3</v>
+        <v>2.23E-4</v>
       </c>
     </row>
     <row r="33" spans="3:5">
       <c r="C33" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E33">
-        <v>4.4700000000000002E-4</v>
+        <v>1.8309999999999999E-3</v>
       </c>
     </row>
     <row r="34" spans="3:5">
       <c r="C34" s="18" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E34">
-        <v>2.23E-4</v>
+        <v>4.4700000000000002E-4</v>
       </c>
     </row>
     <row r="35" spans="3:5">
@@ -5170,7 +5238,7 @@
         <v>83</v>
       </c>
       <c r="D35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E35">
         <v>2.23E-4</v>
@@ -5178,10 +5246,10 @@
     </row>
     <row r="36" spans="3:5">
       <c r="C36" s="18" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E36">
         <v>2.23E-4</v>
@@ -5189,10 +5257,10 @@
     </row>
     <row r="37" spans="3:5">
       <c r="C37" s="18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E37">
         <v>2.23E-4</v>
@@ -5200,32 +5268,32 @@
     </row>
     <row r="38" spans="3:5">
       <c r="C38" s="18" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E38">
-        <v>9.7999999999999997E-5</v>
+        <v>2.23E-4</v>
       </c>
     </row>
     <row r="39" spans="3:5">
       <c r="C39" s="18" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E39">
-        <v>2.23E-4</v>
+        <v>9.7999999999999997E-5</v>
       </c>
     </row>
     <row r="40" spans="3:5">
       <c r="C40" s="18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E40">
         <v>2.23E-4</v>
@@ -5233,23 +5301,34 @@
     </row>
     <row r="41" spans="3:5">
       <c r="C41" s="18" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E41">
-        <v>5.5000000000000002E-5</v>
+        <v>2.23E-4</v>
       </c>
     </row>
     <row r="42" spans="3:5">
       <c r="C42" s="18" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="D42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E42">
+        <v>5.5000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5">
+      <c r="C43" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43">
         <v>2.23E-4</v>
       </c>
     </row>
